--- a/data/results/NY_sim_results.xlsx
+++ b/data/results/NY_sim_results.xlsx
@@ -34,7 +34,7 @@
     <t>Wage loss</t>
   </si>
   <si>
-    <t>Assumption under selected social distancing</t>
+    <t>Unemployment rate assumption under selected social distancing</t>
   </si>
   <si>
     <t>cost of universal testing</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1838,6 +1838,34 @@
         <v>201.9077304930546</v>
       </c>
     </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43991</v>
+      </c>
+      <c r="C99">
+        <v>738.5556476007814</v>
+      </c>
+      <c r="D99">
+        <v>197.9875310507312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C100">
+        <v>724.2037926440743</v>
+      </c>
+      <c r="D100">
+        <v>194.137788570303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1845,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3220,6 +3248,34 @@
         <v>0.1955509319928214</v>
       </c>
     </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43991</v>
+      </c>
+      <c r="C99">
+        <v>168.5598126326682</v>
+      </c>
+      <c r="D99">
+        <v>0.1957293344516139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C100">
+        <v>168.7083981172983</v>
+      </c>
+      <c r="D100">
+        <v>0.1958990148374714</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3227,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6366,6 +6422,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43991</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0.1107925632017423</v>
+      </c>
+      <c r="F99">
+        <v>0.1107925632017423</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>2540.531144272926</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0.1086157946203568</v>
+      </c>
+      <c r="F100">
+        <v>0.1086157946203568</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>2490.616707644046</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6373,7 +6493,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8042,6 +8162,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43991</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8049,7 +8203,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10304,6 +10458,52 @@
       </c>
       <c r="G98">
         <v>29444.67130616208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43991</v>
+      </c>
+      <c r="C99">
+        <v>450511.6556246629</v>
+      </c>
+      <c r="D99">
+        <v>113860.7731719511</v>
+      </c>
+      <c r="E99">
+        <v>29218.90121824667</v>
+      </c>
+      <c r="F99">
+        <v>9447.493806178874</v>
+      </c>
+      <c r="G99">
+        <v>28864.88373903842</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C100">
+        <v>453002.272332307</v>
+      </c>
+      <c r="D100">
+        <v>114547.5476852644</v>
+      </c>
+      <c r="E100">
+        <v>29413.03900681698</v>
+      </c>
+      <c r="F100">
+        <v>9262.669878753541</v>
+      </c>
+      <c r="G100">
+        <v>28295.84240932334</v>
       </c>
     </row>
   </sheetData>
